--- a/old_database/crypto/fastqFiles/fastq_2574.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_2574.xlsx
@@ -37,7 +37,7 @@
     <t>11.13.17</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2574</t>
   </si>
   <si>
     <t>sequence/run_2574_samples/2574_Brent_1_GTAC1_TGAGGTTA_S1_R1_001.fastq</t>
